--- a/ModelsFinalScore.xlsx
+++ b/ModelsFinalScore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\monografy-ann-demand-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92508346-CAA9-409E-91E0-773F3252B584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A03CF-4DF8-4412-9078-B0ABD5E22FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="3705" windowWidth="22695" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODOS" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -619,21 +619,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -694,6 +679,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1004,8 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,24 +1065,24 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1296,7 +1300,7 @@
       <c r="E7" s="9">
         <v>-1.5530588570020649</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="37">
         <v>0.59543989510501438</v>
       </c>
       <c r="G7" s="9">
@@ -1308,13 +1312,13 @@
       <c r="I7" s="9">
         <v>177.54965650504519</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="37">
         <v>0.35454866868267049</v>
       </c>
       <c r="K7" s="9">
         <v>7.2110719873996851E-2</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="48">
         <v>108.06630151129821</v>
       </c>
       <c r="M7" s="9">
@@ -1331,7 +1335,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7">
@@ -1431,7 +1435,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="26">
@@ -1446,7 +1450,7 @@
       <c r="E10" s="27">
         <v>2.361165722554686</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="35">
         <v>0.65992382691107465</v>
       </c>
       <c r="G10" s="27">
@@ -1458,13 +1462,13 @@
       <c r="I10" s="27">
         <v>146.04290150412379</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="36">
         <v>0.43549945732495732</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="34">
         <v>4.840753695867412E-2</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="35">
         <v>101.1515612266131</v>
       </c>
       <c r="M10" s="27">
@@ -1481,24 +1485,24 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -1551,52 +1555,52 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="40">
         <v>58653</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>62048.046875</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>3395.046875</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>5.7883601435561687</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="42">
         <v>0.67142980088803705</v>
       </c>
-      <c r="G13" s="46">
-        <v>3.2984335964928242E-25</v>
-      </c>
-      <c r="H13" s="46">
+      <c r="G13" s="61">
+        <v>3.29843359649282E-25</v>
+      </c>
+      <c r="H13" s="41">
         <v>0.5421310511193127</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="41">
         <v>166.21118302341461</v>
       </c>
-      <c r="J13" s="48">
-        <v>0.45081797752054892</v>
-      </c>
-      <c r="K13" s="49">
+      <c r="J13" s="43">
+        <v>0.45081797752054897</v>
+      </c>
+      <c r="K13" s="44">
         <v>4.4599046412541067E-2</v>
       </c>
-      <c r="L13" s="47">
-        <v>99.365095295089347</v>
-      </c>
-      <c r="M13" s="46">
+      <c r="L13" s="42">
+        <v>99.365095295089304</v>
+      </c>
+      <c r="M13" s="41">
         <v>-8163.1878910064697</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="41">
         <v>4768.1398220062256</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>55.235549926757813</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>224.90689710891991</v>
       </c>
     </row>
@@ -1616,7 +1620,7 @@
       <c r="E14" s="9">
         <v>-3.5631362535980231</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="37">
         <v>0.52064336614037821</v>
       </c>
       <c r="G14" s="9">
@@ -1628,17 +1632,17 @@
       <c r="I14" s="9">
         <v>219.01253583808091</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="37">
         <v>0.27106951470598423</v>
       </c>
       <c r="K14" s="9">
         <v>6.3900354658029609E-2</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="37">
         <v>112.9921124618952</v>
       </c>
       <c r="M14" s="9">
-        <v>-3044.883651733398</v>
+        <v>-3044.8836517333998</v>
       </c>
       <c r="N14" s="9">
         <v>4183.7337627410889</v>
@@ -1801,7 +1805,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="19">
@@ -1834,7 +1838,7 @@
       <c r="K18" s="20">
         <v>7.8827728235007929E-2</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="45">
         <v>116.6204195220363</v>
       </c>
       <c r="M18" s="20">
@@ -1851,7 +1855,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8">
@@ -1884,7 +1888,7 @@
       <c r="K19" s="16">
         <v>6.587544593155728E-2</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="47">
         <v>106.20801232270129</v>
       </c>
       <c r="M19" s="16">
@@ -1925,74 +1929,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -2010,7 +2014,7 @@
       <c r="E3" s="9">
         <v>-1.5530588570020649</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="37">
         <v>0.59543989510501438</v>
       </c>
       <c r="G3" s="9">
@@ -2022,13 +2026,13 @@
       <c r="I3" s="9">
         <v>177.54965650504519</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="37">
         <v>0.35454866868267049</v>
       </c>
       <c r="K3" s="9">
         <v>7.2110719873996851E-2</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="48">
         <v>108.06630151129821</v>
       </c>
       <c r="M3" s="9">
@@ -2045,7 +2049,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7">
@@ -2145,7 +2149,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26">
@@ -2160,7 +2164,7 @@
       <c r="E6" s="27">
         <v>2.361165722554686</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="35">
         <v>0.65992382691107465</v>
       </c>
       <c r="G6" s="27">
@@ -2172,13 +2176,13 @@
       <c r="I6" s="27">
         <v>146.04290150412379</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="36">
         <v>0.43549945732495732</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="34">
         <v>4.840753695867412E-2</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="35">
         <v>101.1515612266131</v>
       </c>
       <c r="M6" s="27">
@@ -2195,24 +2199,24 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -2265,52 +2269,52 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="40">
         <v>58653</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>62048.046875</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>3395.046875</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>5.7883601435561687</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="42">
         <v>0.67142980088803705</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="41">
         <v>3.2984335964928242E-25</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="41">
         <v>0.5421310511193127</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="41">
         <v>166.21118302341461</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="43">
         <v>0.45081797752054892</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="44">
         <v>4.4599046412541067E-2</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="42">
         <v>99.365095295089347</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>-8163.1878910064697</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>4768.1398220062256</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="41">
         <v>55.235549926757813</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="41">
         <v>224.90689710891991</v>
       </c>
     </row>
@@ -2330,7 +2334,7 @@
       <c r="E10" s="9">
         <v>-3.5631362535980231</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="37">
         <v>0.52064336614037821</v>
       </c>
       <c r="G10" s="9">
@@ -2342,13 +2346,13 @@
       <c r="I10" s="9">
         <v>219.01253583808091</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="37">
         <v>0.27106951470598423</v>
       </c>
       <c r="K10" s="9">
         <v>6.3900354658029609E-2</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="37">
         <v>112.9921124618952</v>
       </c>
       <c r="M10" s="9">
@@ -2415,7 +2419,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8">
@@ -2448,7 +2452,7 @@
       <c r="K12" s="16">
         <v>6.587544593155728E-2</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="47">
         <v>106.20801232270129</v>
       </c>
       <c r="M12" s="16">
